--- a/dataset_temporary version_0227/July Vs December/July Efficiency.xlsx
+++ b/dataset_temporary version_0227/July Vs December/July Efficiency.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/lcchanaj_connect_ust_hk/Documents/桌面/FYP Code/dataset_temporary version_0227/July Vs December/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/lcchanaj_connect_ust_hk/Documents/桌面/FYP Code/dataset_temporary version_0227/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_08B502541C5B420E62355476583E3E3E84A5811D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53666FD8-7474-4749-AC34-903E346F5AD0}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_08B523745944140E623554765893FEB983439972" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E4D7B39-1458-49BF-8265-8F91800AE1CB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Efficiency</t>
   </si>
@@ -122,6 +122,54 @@
   </si>
   <si>
     <t>15:00:00</t>
+  </si>
+  <si>
+    <t>15:15:00</t>
+  </si>
+  <si>
+    <t>15:30:00</t>
+  </si>
+  <si>
+    <t>15:45:00</t>
+  </si>
+  <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
+    <t>16:15:00</t>
+  </si>
+  <si>
+    <t>16:30:00</t>
+  </si>
+  <si>
+    <t>16:45:00</t>
+  </si>
+  <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>17:15:00</t>
+  </si>
+  <si>
+    <t>17:30:00</t>
+  </si>
+  <si>
+    <t>17:45:00</t>
+  </si>
+  <si>
+    <t>18:00:00</t>
+  </si>
+  <si>
+    <t>18:15:00</t>
+  </si>
+  <si>
+    <t>18:30:00</t>
+  </si>
+  <si>
+    <t>18:45:00</t>
+  </si>
+  <si>
+    <t>19:00:00</t>
   </si>
   <si>
     <t>Time</t>
@@ -505,17 +553,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -783,6 +829,134 @@
       </c>
       <c r="B34">
         <v>10.78178639510681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>10.126181156206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>10.219107757979691</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>10.12582265207309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>10.50655526834281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>9.5727560277474666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>9.5445947469171752</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>12.643424463359541</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>21.71901580165213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>20.186083852061259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>15.94396091461229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>12.154991327115169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>8.9669608296395964</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>6.1804965501976454</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>3.886311306624147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1.357850618316321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0.11307244347315321</v>
       </c>
     </row>
   </sheetData>
